--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\My Drive\Python Projects\66. CNN Using MPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCF6E7ED-7200-448C-A31C-CD9D827DD67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA476CA7-A717-4ADA-ADB3-DC07D2A6F9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E8BE0409-D051-4F5D-8039-169BEFC92343}"/>
   </bookViews>
@@ -862,7 +862,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -961,7 +961,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
                         <a:lumMod val="65000"/>
@@ -1019,10 +1019,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>67</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1363,13 +1363,10 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -2786,8 +2783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C75CBA-35B4-4664-8607-919565F7F39C}">
   <dimension ref="C5:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2853,7 +2850,7 @@
         <v>7</v>
       </c>
       <c r="D26">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="3:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -2861,7 +2858,7 @@
         <v>8</v>
       </c>
       <c r="D27">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\My Drive\Python Projects\66. CNN Using MPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA476CA7-A717-4ADA-ADB3-DC07D2A6F9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BE80D2-507D-481B-9774-F2FD1F6B673B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E8BE0409-D051-4F5D-8039-169BEFC92343}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Precision</t>
   </si>
@@ -63,6 +63,30 @@
   </si>
   <si>
     <t>MPI-Based Ensemble CNN</t>
+  </si>
+  <si>
+    <t>Without Data Augmentation</t>
+  </si>
+  <si>
+    <t>With Data Augmentation</t>
+  </si>
+  <si>
+    <t>Test Accuracy</t>
+  </si>
+  <si>
+    <t>No Tumor</t>
+  </si>
+  <si>
+    <t>Tumor</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Before Data Augmentation</t>
+  </si>
+  <si>
+    <t>After Data Augmentation</t>
   </si>
 </sst>
 </file>
@@ -98,11 +122,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1322,6 +1347,1131 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Test Accuracy Comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Without Data Augmentation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:fld id="{3C58CC94-5AB4-45EE-9336-3798998A71C5}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-3881-4073-98B5-DF8CC312BD55}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-PK"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3881-4073-98B5-DF8CC312BD55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>With Data Augmentation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{216C52A1-8640-4DFB-9637-DAD104FB3E9B}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-PK"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-3881-4073-98B5-DF8CC312BD55}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-PK"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Test Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3881-4073-98B5-DF8CC312BD55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="905468527"/>
+        <c:axId val="905469967"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="905468527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="905469967"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="905469967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="905468527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-PK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Increasing the Samples Using Data Augmentation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No Tumor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-PK"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$48:$E$48</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Before Data Augmentation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>After Data Augmentation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$49:$E$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5329-4E5E-9224-006F4AE18D3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tumor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-PK"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$48:$E$48</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Before Data Augmentation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>After Data Augmentation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$50:$E$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5329-4E5E-9224-006F4AE18D3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1245848975"/>
+        <c:axId val="1245849935"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1245848975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1245849935"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1245849935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1245848975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-PK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1399,6 +2549,83 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
@@ -1894,6 +3121,994 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2456,6 +4671,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED474100-7CE8-EE0E-BE93-989C8075966A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15F66CE2-1314-D0C2-A94C-349999ABBDDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2781,15 +5068,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C75CBA-35B4-4664-8607-919565F7F39C}">
-  <dimension ref="C5:G27"/>
+  <dimension ref="C5:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:7" x14ac:dyDescent="0.3">
@@ -2861,6 +5149,84 @@
         <v>42</v>
       </c>
     </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <v>48</v>
+      </c>
+      <c r="E49">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50">
+        <v>60</v>
+      </c>
+      <c r="E50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
